--- a/docs/flow/broadcast_product_information.xlsx
+++ b/docs/flow/broadcast_product_information.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brunoric/Devel/Smartbox/millenniumfalcon/r2-d2-api/docs/flow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33962BCD-7091-1641-94BE-DCD0A437DFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6D0C13-C7CD-5647-BA2B-BBE1F7B59AE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="-21140" windowWidth="19200" windowHeight="21140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="456">
   <si>
     <t>Integration Information</t>
   </si>
@@ -1419,16 +1419,28 @@
     <t>is_reservable</t>
   </si>
   <si>
-    <t>partner</t>
-  </si>
-  <si>
     <t>/broadcast_listerners/producs</t>
   </si>
   <si>
-    <t>smartbox_id</t>
-  </si>
-  <si>
-    <t>partner_smartbox_id</t>
+    <t>golden_id</t>
+  </si>
+  <si>
+    <t>experiences</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>experiences, rooms</t>
+  </si>
+  <si>
+    <t>partner_golden_id</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>boxes</t>
   </si>
 </sst>
 </file>
@@ -2107,6 +2119,62 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="17" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="17" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -2133,62 +2201,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="16" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="17" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="17" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -2587,8 +2599,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AZ71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW6" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
-      <selection activeCell="AY30" sqref="AY30:AY31"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="98" zoomScaleNormal="98" zoomScalePageLayoutView="98" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="AV1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AY39" sqref="AY39:AZ40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2636,38 +2649,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
     </row>
     <row r="2" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="50"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="45"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="56"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
@@ -2676,37 +2689,37 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="50"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="53"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
@@ -2726,23 +2739,23 @@
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
+      <c r="B7" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="48"/>
     </row>
     <row r="8" spans="1:52" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="53"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="5" t="s">
         <v>15</v>
       </c>
@@ -2764,13 +2777,13 @@
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="39" t="s">
+      <c r="B9" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="41"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -2789,13 +2802,13 @@
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="44"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2804,25 +2817,25 @@
       <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
     </row>
     <row r="12" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="50"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1" t="s">
         <v>24</v>
       </c>
@@ -2831,13 +2844,13 @@
       <c r="A13" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="56"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="1" t="s">
         <v>27</v>
       </c>
@@ -2940,10 +2953,10 @@
       <c r="K17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="L17" s="57" t="s">
+      <c r="L17" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="M17" s="58"/>
+      <c r="M17" s="39"/>
       <c r="N17" s="12" t="s">
         <v>33</v>
       </c>
@@ -2954,10 +2967,10 @@
       <c r="Q17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="R17" s="57" t="s">
+      <c r="R17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="S17" s="58"/>
+      <c r="S17" s="39"/>
       <c r="T17" s="12" t="s">
         <v>33</v>
       </c>
@@ -3064,8 +3077,8 @@
       <c r="K18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="57"/>
-      <c r="M18" s="58"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="39"/>
       <c r="N18" s="27" t="s">
         <v>50</v>
       </c>
@@ -3076,8 +3089,8 @@
       <c r="Q18" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="57"/>
-      <c r="S18" s="58"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="39"/>
       <c r="T18" s="27" t="s">
         <v>50</v>
       </c>
@@ -3150,7 +3163,7 @@
         <v>50</v>
       </c>
       <c r="AY18" s="36" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AZ18" s="37"/>
     </row>
@@ -3436,10 +3449,10 @@
         <v>446</v>
       </c>
       <c r="AY20" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AZ20" s="17" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="21" spans="1:52" x14ac:dyDescent="0.2">
@@ -4018,9 +4031,15 @@
       <c r="AU25" s="34"/>
       <c r="AV25" s="34"/>
       <c r="AW25" s="34"/>
-      <c r="AX25" s="17"/>
-      <c r="AY25" s="17"/>
-      <c r="AZ25" s="17"/>
+      <c r="AX25" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="AY25" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="AZ25" s="17" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="26" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
@@ -4131,7 +4150,7 @@
         <v>150</v>
       </c>
       <c r="AX26" s="17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AY26" s="17" t="s">
         <v>150</v>
@@ -5643,13 +5662,13 @@
       <c r="AV39" s="34"/>
       <c r="AW39" s="34"/>
       <c r="AX39" s="17" t="s">
-        <v>13</v>
+        <v>455</v>
       </c>
       <c r="AY39" s="17" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
       <c r="AZ39" s="17" t="s">
-        <v>13</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
@@ -5767,13 +5786,13 @@
       <c r="AV40" s="34"/>
       <c r="AW40" s="34"/>
       <c r="AX40" s="17" t="s">
-        <v>13</v>
+        <v>455</v>
       </c>
       <c r="AY40" s="17" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
       <c r="AZ40" s="17" t="s">
-        <v>13</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:52" x14ac:dyDescent="0.2">
@@ -5887,13 +5906,13 @@
         <v>284</v>
       </c>
       <c r="AX41" s="17" t="s">
-        <v>446</v>
+        <v>13</v>
       </c>
       <c r="AY41" s="17" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
       <c r="AZ41" s="17" t="s">
-        <v>284</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:52" x14ac:dyDescent="0.2">
@@ -6860,7 +6879,7 @@
         <v>324</v>
       </c>
       <c r="AX50" s="17" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="AY50" s="17" t="s">
         <v>328</v>
@@ -7086,7 +7105,7 @@
         <v>338</v>
       </c>
       <c r="AX52" s="17" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="AY52" s="17" t="s">
         <v>447</v>
@@ -7424,13 +7443,13 @@
         <v>362</v>
       </c>
       <c r="AX55" s="17" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="AY55" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AZ55" s="17" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="56" spans="1:52" x14ac:dyDescent="0.2">
@@ -8531,13 +8550,13 @@
       <c r="AV66" s="34"/>
       <c r="AW66" s="34"/>
       <c r="AX66" s="17" t="s">
-        <v>13</v>
+        <v>450</v>
       </c>
       <c r="AY66" s="17" t="s">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="AZ66" s="17" t="s">
-        <v>13</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:52" x14ac:dyDescent="0.2">
@@ -8985,6 +9004,37 @@
   </sheetData>
   <autoFilter ref="A19:U54" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="47">
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AJ17:AK17"/>
+    <mergeCell ref="AJ18:AK18"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
     <mergeCell ref="AY17:AZ17"/>
     <mergeCell ref="AY18:AZ18"/>
     <mergeCell ref="AV17:AW17"/>
@@ -9001,37 +9051,6 @@
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AS17:AT17"/>
     <mergeCell ref="AS18:AT18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AJ17:AK17"/>
-    <mergeCell ref="AJ18:AK18"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AP18:AQ18"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
@@ -9040,6 +9059,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100004C70840A00D14FB073C782B006FD00" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d771bffbb5debddc4e5c76c89fa30dd9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1" xmlns:ns3="73d215bf-fdbb-4743-8037-d05701f5ec3f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f3c61cbd2dcddd7198b406d7235eaae" ns2:_="" ns3:_="">
     <xsd:import namespace="42b4b149-d7d7-4e8c-abdf-ceb02bd3b3b1"/>
@@ -9232,15 +9260,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -9263,6 +9282,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908E418E-BF99-44F3-91BD-A54BE7DDCF15}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17B39EE2-9336-4C3E-AF96-81399A2B4F52}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9281,14 +9308,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{908E418E-BF99-44F3-91BD-A54BE7DDCF15}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5E137E3-31B4-4D81-94FD-4E90FDC5641E}">
   <ds:schemaRefs>
